--- a/Data_all/Data_20_all.xlsx
+++ b/Data_all/Data_20_all.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>平均エラー数</t>
     <rPh sb="0" eb="2">
@@ -141,6 +141,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>平均</t>
+    <rPh sb="0" eb="2">
+      <t>ヘイキン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -169,18 +176,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -210,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -226,8 +227,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -529,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2157,21 +2156,99 @@
         <v>1.5859999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
-        <f>AVERAGE(L3:L22)</f>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="4">
+        <f>AVERAGE(B3:B22)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" ref="C23:L23" si="12">AVERAGE(C3:C22)</f>
+        <v>0.15</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.23333333333333331</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="J23" s="4">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K23" s="4">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="L23" s="4">
+        <f t="shared" si="12"/>
         <v>7.6666666666666661E-2</v>
       </c>
-      <c r="N25" s="8">
-        <f>AVERAGE(Y3:Y22)</f>
+      <c r="N23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O23" s="4">
+        <f>AVERAGE(O3:O22)</f>
+        <v>1.1770000000000003</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" ref="P23:Y23" si="13">AVERAGE(P3:P22)</f>
+        <v>1.4609999999999999</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.1563333333333337</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.1606666666666665</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.018</v>
+      </c>
+      <c r="T23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3123333333333334</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.2353333333333336</v>
+      </c>
+      <c r="V23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.7666666666666668</v>
+      </c>
+      <c r="W23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3616666666666666</v>
+      </c>
+      <c r="X23" s="4">
+        <f t="shared" si="13"/>
+        <v>1.3566666666666667</v>
+      </c>
+      <c r="Y23" s="4">
+        <f t="shared" si="13"/>
         <v>1.3005666666666664</v>
       </c>
     </row>

--- a/Data_all/Data_20_all.xlsx
+++ b/Data_all/Data_20_all.xlsx
@@ -239,6 +239,529 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.36666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23333333333333331</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="180061312"/>
+        <c:axId val="180062848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180061312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180062848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="180062848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180061312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$3:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$3:$Y$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1.3686666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4886666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3066666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2986666666666666</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1873333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0926666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.032</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0586666666666666</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.052</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.2326666666666668</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.2706666666666666</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.4106666666666665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5859999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="180689152"/>
+        <c:axId val="180695040"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180689152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180695040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="180695040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180689152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>115358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>149225</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243416</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>64558</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +1054,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="Y3" sqref="Y3:Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2260,6 +2783,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Data_all/Data_20_all.xlsx
+++ b/Data_all/Data_20_all.xlsx
@@ -268,8 +268,146 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.15275252316519466</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30731814857642964</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.30731814857642964</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.48189440982669873</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.15275252316519475</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$M$3:$M$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.15275252316519466</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.30731814857642964</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.2</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.13333333333333333</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.30731814857642964</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.48189440982669873</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.15275252316519475</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -419,11 +557,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="180061312"/>
-        <c:axId val="180062848"/>
+        <c:axId val="230986880"/>
+        <c:axId val="230988416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180061312"/>
+        <c:axId val="230986880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -433,7 +571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180062848"/>
+        <c:crossAx val="230988416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -441,10 +579,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180062848"/>
+        <c:axId val="230988416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.4"/>
+          <c:max val="0.9"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -454,7 +592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180061312"/>
+        <c:crossAx val="230986880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -498,8 +636,146 @@
           <c:invertIfNegative val="0"/>
           <c:errBars>
             <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
+            <c:errValType val="cust"/>
             <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.32200828146700405</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.45400978941966508</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36516115163947305</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24182730293423174</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25726769456475818</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21529927491233664</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.189840869033925</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.16852299546352559</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.18800591007258818</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13720382242812595</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.18977881862842347</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.11702991070662319</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.22323779050848702</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.16609100584385014</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.24489090541617786</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.18667142851069207</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.26936963451732959</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.27922432240444695</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.7212396735251515</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.36116416704257337</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$Z$3:$Z$22</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>0.32200828146700405</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.45400978941966508</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.36516115163947305</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.24182730293423174</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.25726769456475818</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.21529927491233664</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.189840869033925</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.16852299546352559</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.18800591007258818</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.13720382242812595</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.18977881862842347</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>0.11702991070662319</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>0.22323779050848702</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>0.16609100584385014</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>0.24489090541617786</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>0.18667142851069207</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>0.26936963451732959</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>0.27922432240444695</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>0.7212396735251515</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>0.36116416704257337</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
           </c:errBars>
           <c:cat>
             <c:numRef>
@@ -649,11 +925,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="180689152"/>
-        <c:axId val="180695040"/>
+        <c:axId val="231749888"/>
+        <c:axId val="231751680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180689152"/>
+        <c:axId val="231749888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180695040"/>
+        <c:crossAx val="231751680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180695040"/>
+        <c:axId val="231751680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,7 +958,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180689152"/>
+        <c:crossAx val="231749888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1051,15 +1327,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A1" s="3"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1089,7 +1365,7 @@
       <c r="X1" s="6"/>
       <c r="Y1" s="6"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -1159,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -1197,6 +1473,10 @@
         <f>AVERAGE(B3:K3)</f>
         <v>0.1</v>
       </c>
+      <c r="M3">
+        <f>_xlfn.STDEV.P(B3:K3)</f>
+        <v>0.15275252316519466</v>
+      </c>
       <c r="N3" s="3">
         <v>0</v>
       </c>
@@ -1234,8 +1514,12 @@
         <f>AVERAGE(O3:X3)</f>
         <v>1.3686666666666667</v>
       </c>
+      <c r="Z3">
+        <f>_xlfn.STDEV.P(O3:X3)</f>
+        <v>0.32200828146700405</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1273,6 +1557,10 @@
         <f t="shared" ref="L4:L6" si="0">AVERAGE(B4:K4)</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M22" si="1">_xlfn.STDEV.P(B4:K4)</f>
+        <v>0.30731814857642964</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
@@ -1307,11 +1595,15 @@
         <v>1.4799999999999998</v>
       </c>
       <c r="Y4" s="5">
-        <f t="shared" ref="Y4:Y6" si="1">AVERAGE(O4:X4)</f>
+        <f t="shared" ref="Y4:Y6" si="2">AVERAGE(O4:X4)</f>
         <v>1.522</v>
       </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z22" si="3">_xlfn.STDEV.P(O4:X4)</f>
+        <v>0.45400978941966508</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1349,6 +1641,10 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
@@ -1383,11 +1679,15 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="Y5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4886666666666668</v>
       </c>
+      <c r="Z5">
+        <f t="shared" si="3"/>
+        <v>0.36516115163947305</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -1425,6 +1725,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="N6" s="3">
         <v>3</v>
       </c>
@@ -1459,11 +1763,15 @@
         <v>1.4133333333333333</v>
       </c>
       <c r="Y6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3220000000000001</v>
       </c>
+      <c r="Z6">
+        <f t="shared" si="3"/>
+        <v>0.24182730293423174</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1501,6 +1809,10 @@
         <f>AVERAGE(B7:K7)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N7" s="3">
         <v>4</v>
       </c>
@@ -1538,8 +1850,12 @@
         <f>AVERAGE(O7:X7)</f>
         <v>1.3066666666666669</v>
       </c>
+      <c r="Z7">
+        <f t="shared" si="3"/>
+        <v>0.25726769456475818</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -1577,6 +1893,10 @@
         <f>AVERAGE(B8:K8)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
       <c r="N8" s="3">
         <v>5</v>
       </c>
@@ -1614,8 +1934,12 @@
         <f>AVERAGE(O8:X8)</f>
         <v>1.2986666666666666</v>
       </c>
+      <c r="Z8">
+        <f t="shared" si="3"/>
+        <v>0.21529927491233664</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -1653,6 +1977,10 @@
         <f>AVERAGE(B9:K9)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N9" s="3">
         <v>6</v>
       </c>
@@ -1690,8 +2018,12 @@
         <f>AVERAGE(O9:X9)</f>
         <v>1.1873333333333334</v>
       </c>
+      <c r="Z9">
+        <f t="shared" si="3"/>
+        <v>0.189840869033925</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -1726,7 +2058,11 @@
         <v>0</v>
       </c>
       <c r="L10" s="5">
-        <f t="shared" ref="L10" si="2">AVERAGE(B10:K10)</f>
+        <f t="shared" ref="L10" si="4">AVERAGE(B10:K10)</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N10" s="3">
@@ -1763,11 +2099,15 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="Y10" s="5">
-        <f t="shared" ref="Y10" si="3">AVERAGE(O10:X10)</f>
+        <f t="shared" ref="Y10" si="5">AVERAGE(O10:X10)</f>
         <v>1.1600000000000001</v>
       </c>
+      <c r="Z10">
+        <f t="shared" si="3"/>
+        <v>0.16852299546352559</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -1803,6 +2143,10 @@
       </c>
       <c r="L11" s="5">
         <f>AVERAGE(B11:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N11" s="3">
@@ -1842,8 +2186,12 @@
         <f>AVERAGE(O11:X11)</f>
         <v>1.0926666666666667</v>
       </c>
+      <c r="Z11">
+        <f t="shared" si="3"/>
+        <v>0.18800591007258818</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -1878,7 +2226,11 @@
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" ref="L12" si="4">AVERAGE(B12:K12)</f>
+        <f t="shared" ref="L12" si="6">AVERAGE(B12:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N12" s="3">
@@ -1915,11 +2267,15 @@
         <v>0.93333333333333324</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" ref="Y12" si="5">AVERAGE(O12:X12)</f>
+        <f t="shared" ref="Y12" si="7">AVERAGE(O12:X12)</f>
         <v>1.032</v>
       </c>
+      <c r="Z12">
+        <f t="shared" si="3"/>
+        <v>0.13720382242812595</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10</v>
       </c>
@@ -1957,6 +2313,10 @@
         <f>AVERAGE(B13:K13)</f>
         <v>3.3333333333333333E-2</v>
       </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
       <c r="N13" s="3">
         <v>10</v>
       </c>
@@ -1994,8 +2354,12 @@
         <f>AVERAGE(O13:X13)</f>
         <v>1.0586666666666666</v>
       </c>
+      <c r="Z13">
+        <f t="shared" si="3"/>
+        <v>0.18977881862842347</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>11</v>
       </c>
@@ -2030,8 +2394,12 @@
         <v>0</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" ref="L14" si="6">AVERAGE(B14:K14)</f>
+        <f t="shared" ref="L14" si="8">AVERAGE(B14:K14)</f>
         <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
       </c>
       <c r="N14" s="3">
         <v>11</v>
@@ -2067,11 +2435,15 @@
         <v>0.94</v>
       </c>
       <c r="Y14" s="5">
-        <f t="shared" ref="Y14" si="7">AVERAGE(O14:X14)</f>
+        <f t="shared" ref="Y14" si="9">AVERAGE(O14:X14)</f>
         <v>1.052</v>
       </c>
+      <c r="Z14">
+        <f t="shared" si="3"/>
+        <v>0.11702991070662319</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>12</v>
       </c>
@@ -2109,6 +2481,10 @@
         <f>AVERAGE(B15:K15)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N15" s="3">
         <v>12</v>
       </c>
@@ -2146,8 +2522,12 @@
         <f>AVERAGE(O15:X15)</f>
         <v>1.1739999999999999</v>
       </c>
+      <c r="Z15">
+        <f t="shared" si="3"/>
+        <v>0.22323779050848702</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>13</v>
       </c>
@@ -2182,8 +2562,12 @@
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:L17" si="8">AVERAGE(B16:K16)</f>
+        <f t="shared" ref="L16:L17" si="10">AVERAGE(B16:K16)</f>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N16" s="3">
         <v>13</v>
@@ -2219,11 +2603,15 @@
         <v>1.3066666666666666</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" ref="Y16:Y17" si="9">AVERAGE(O16:X16)</f>
+        <f t="shared" ref="Y16:Y17" si="11">AVERAGE(O16:X16)</f>
         <v>1.2326666666666668</v>
       </c>
+      <c r="Z16">
+        <f t="shared" si="3"/>
+        <v>0.16609100584385014</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>14</v>
       </c>
@@ -2258,8 +2646,12 @@
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
       </c>
       <c r="N17" s="3">
         <v>14</v>
@@ -2295,11 +2687,15 @@
         <v>1.26</v>
       </c>
       <c r="Y17" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.208</v>
       </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>0.24489090541617786</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>15</v>
       </c>
@@ -2335,6 +2731,10 @@
       </c>
       <c r="L18" s="5">
         <f>AVERAGE(B18:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N18" s="3">
@@ -2374,8 +2774,12 @@
         <f>AVERAGE(O18:X18)</f>
         <v>1.2706666666666666</v>
       </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>0.18667142851069207</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>16</v>
       </c>
@@ -2413,6 +2817,10 @@
         <f>AVERAGE(B19:K19)</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
       <c r="N19" s="3">
         <v>16</v>
       </c>
@@ -2450,8 +2858,12 @@
         <f>AVERAGE(O19:X19)</f>
         <v>1.3400000000000003</v>
       </c>
+      <c r="Z19">
+        <f t="shared" si="3"/>
+        <v>0.26936963451732959</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>17</v>
       </c>
@@ -2486,8 +2898,12 @@
         <v>0</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" ref="L20:L22" si="10">AVERAGE(B20:K20)</f>
+        <f t="shared" ref="L20:L22" si="12">AVERAGE(B20:K20)</f>
         <v>0.16666666666666666</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.30731814857642964</v>
       </c>
       <c r="N20" s="3">
         <v>17</v>
@@ -2523,11 +2939,15 @@
         <v>1.36</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" ref="Y20:Y22" si="11">AVERAGE(O20:X20)</f>
+        <f t="shared" ref="Y20:Y22" si="13">AVERAGE(O20:X20)</f>
         <v>1.4106666666666665</v>
       </c>
+      <c r="Z20">
+        <f t="shared" si="3"/>
+        <v>0.27922432240444695</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>18</v>
       </c>
@@ -2562,8 +2982,12 @@
         <v>0</v>
       </c>
       <c r="L21" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.36666666666666664</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.48189440982669873</v>
       </c>
       <c r="N21" s="3">
         <v>18</v>
@@ -2599,11 +3023,15 @@
         <v>1.3666666666666669</v>
       </c>
       <c r="Y21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.9</v>
       </c>
+      <c r="Z21">
+        <f t="shared" si="3"/>
+        <v>0.7212396735251515</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>19</v>
       </c>
@@ -2638,8 +3066,12 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.23333333333333331</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0.15275252316519475</v>
       </c>
       <c r="N22" s="3">
         <v>19</v>
@@ -2675,11 +3107,15 @@
         <v>1.86</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.5859999999999999</v>
       </c>
+      <c r="Z22">
+        <f t="shared" si="3"/>
+        <v>0.36116416704257337</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>13</v>
       </c>
@@ -2688,43 +3124,43 @@
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="C23" s="4">
-        <f t="shared" ref="C23:L23" si="12">AVERAGE(C3:C22)</f>
+        <f t="shared" ref="C23:L23" si="14">AVERAGE(C3:C22)</f>
         <v>0.15</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="E23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.23333333333333331</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.16666666666666669</v>
       </c>
       <c r="H23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.3333333333333333E-2</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>1.6666666666666666E-2</v>
       </c>
       <c r="K23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="L23" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.6666666666666661E-2</v>
       </c>
       <c r="N23" s="3" t="s">
@@ -2735,43 +3171,43 @@
         <v>1.1770000000000003</v>
       </c>
       <c r="P23" s="4">
-        <f t="shared" ref="P23:Y23" si="13">AVERAGE(P3:P22)</f>
+        <f t="shared" ref="P23:Y23" si="15">AVERAGE(P3:P22)</f>
         <v>1.4609999999999999</v>
       </c>
       <c r="Q23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1563333333333337</v>
       </c>
       <c r="R23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.1606666666666665</v>
       </c>
       <c r="S23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.018</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3123333333333334</v>
       </c>
       <c r="U23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2353333333333336</v>
       </c>
       <c r="V23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.7666666666666668</v>
       </c>
       <c r="W23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3616666666666666</v>
       </c>
       <c r="X23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3566666666666667</v>
       </c>
       <c r="Y23" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3005666666666664</v>
       </c>
     </row>
